--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD6-News_150407.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD6-News_150407.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\Ingeteam\DA\cap08-BasesDeDatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Campos\Desktop\Documents\GitHub\Ingeteam\DRE\cap08-BasesDeDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -197,14 +197,14 @@
     <t>TB Markets [Market Name]</t>
   </si>
   <si>
-    <t>TB Regiones [Region Name]</t>
-  </si>
-  <si>
     <t>PDF generado por el CRM con el link anterior</t>
   </si>
   <si>
     <t>Deberá aparecer el nombre cuando se escriba.
 Se avisará automáticamente al KAM cuando haya  una nueva noticia sobre sus cuentas.</t>
+  </si>
+  <si>
+    <t>TB Regions [Region Name]</t>
   </si>
 </sst>
 </file>
@@ -755,7 +755,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,7 +906,7 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
@@ -935,7 +935,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
@@ -980,7 +980,7 @@
         <v>26</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
